--- a/ONLINE-ALL-GOLD-SILVER-STOCK-SALES.xlsx
+++ b/ONLINE-ALL-GOLD-SILVER-STOCK-SALES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee24de5bf14dc496/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{A5078FCE-7BB9-4F7B-90AE-292286924E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F584520-9105-4AC3-A91D-0CECB5746A2F}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{A5078FCE-7BB9-4F7B-90AE-292286924E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4F774B-11DD-49FD-8AF6-642D439FDC08}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4864E6B9-F206-4E07-86E0-23B10837A378}"/>
   </bookViews>
@@ -36259,7 +36259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8"/>
@@ -36445,14 +36445,14 @@
         <v>166281.80399999997</v>
       </c>
       <c r="H3" s="43">
-        <v>176360</v>
+        <v>176460</v>
       </c>
       <c r="I3" s="43">
         <v>14000</v>
       </c>
       <c r="J3" s="97">
         <f t="shared" ref="J3:J31" si="0">((H3+P3)-G3)</f>
-        <v>10078.196000000025</v>
+        <v>10178.196000000025</v>
       </c>
       <c r="L3" s="1">
         <v>63</v>
